--- a/Experiment 01/excel/functions.xlsx
+++ b/Experiment 01/excel/functions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tejas\clg\sem4\daa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spitindia-my.sharepoint.com/personal/tejas_jadhav22_spit_ac_in/Documents/clg/daa/Experiment 01/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{24F2D11E-23B9-4FFE-B5D7-0BD4E7846762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:40009_{24F2D11E-23B9-4FFE-B5D7-0BD4E7846762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{760F5904-194D-4DF9-80AA-350A34C85979}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4792,7 +4792,13 @@
       </a:solidFill>
       <a:round/>
     </a:ln>
-    <a:effectLst/>
+    <a:effectLst>
+      <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+        <a:prstClr val="black">
+          <a:alpha val="40000"/>
+        </a:prstClr>
+      </a:outerShdw>
+    </a:effectLst>
   </c:spPr>
   <c:txPr>
     <a:bodyPr/>
@@ -5372,16 +5378,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5698,18 +5704,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
